--- a/Proforma Invoice (Format ) final.xlsx
+++ b/Proforma Invoice (Format ) final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Main\BK Exports bills\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F78D6BC6-16A3-46FA-B841-F2ADF9C722E9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E0DAC33-3496-4A51-A63C-65580F5824BC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="30" windowWidth="22980" windowHeight="9555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,18 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
   <si>
     <t xml:space="preserve">  B K EXPORTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  90, Jasodanagar Cross Road, Nr. Canal, Opp.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Baroda Express Highway, Amraiwadi,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Ahmedabad,Gujarat, India - 380026.</t>
   </si>
   <si>
     <t xml:space="preserve">  91 9537651265, 9313035076</t>
@@ -222,6 +213,9 @@
   </si>
   <si>
     <t>Black Galaxy: 270Upx 170Up - 2cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  90, JASODANAGAR CHAR RASTA, NEAR CANAL   OPP.GUJ.GLASS, AHMEDABAD, GUJARAT - 380026</t>
   </si>
 </sst>
 </file>
@@ -627,11 +621,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -647,170 +640,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -820,69 +649,242 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1280,8 +1282,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:Q36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1298,48 +1300,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
+      <c r="B1" s="99" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
     </row>
     <row r="2" spans="2:17" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="10"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="13"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="12"/>
     </row>
     <row r="3" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="49" t="s">
-        <v>50</v>
-      </c>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="K3" s="19"/>
+      <c r="B3" s="67" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="100" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="101"/>
     </row>
     <row r="4" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
@@ -1348,589 +1350,597 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="25">
+      <c r="F4" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="102">
         <v>45635</v>
       </c>
-      <c r="K4" s="19"/>
+      <c r="K4" s="101"/>
     </row>
     <row r="5" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="25">
+      <c r="B5" s="103" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="104"/>
+      <c r="D5" s="104"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="102">
         <v>45657</v>
       </c>
-      <c r="K5" s="19"/>
+      <c r="K5" s="101"/>
     </row>
     <row r="6" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="49" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="K6" s="19"/>
+      <c r="B6" s="103"/>
+      <c r="C6" s="104"/>
+      <c r="D6" s="104"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="100" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="101"/>
     </row>
     <row r="7" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="49" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="K7" s="19"/>
+      <c r="F7" s="66" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="100" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="101"/>
     </row>
     <row r="8" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="2" t="s">
-        <v>4</v>
+      <c r="B8" s="5" t="s">
+        <v>2</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="K8" s="19"/>
+      <c r="F8" s="66" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="100" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="101"/>
     </row>
     <row r="9" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="6" t="s">
-        <v>5</v>
+      <c r="B9" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="K9" s="19"/>
+      <c r="F9" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="100" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="101"/>
     </row>
     <row r="10" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="B10" s="9"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="49" t="s">
+      <c r="F10" s="66" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="100" t="s">
+        <v>48</v>
+      </c>
+      <c r="K10" s="101"/>
+    </row>
+    <row r="11" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="100" t="s">
+        <v>49</v>
+      </c>
+      <c r="K11" s="101"/>
+    </row>
+    <row r="12" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="100" t="s">
+        <v>38</v>
+      </c>
+      <c r="K12" s="101"/>
+    </row>
+    <row r="13" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="18" t="s">
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="100" t="s">
+        <v>50</v>
+      </c>
+      <c r="K13" s="101"/>
+    </row>
+    <row r="14" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="76" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="76"/>
+      <c r="H14" s="76"/>
+      <c r="I14" s="77"/>
+      <c r="J14" s="90" t="s">
+        <v>44</v>
+      </c>
+      <c r="K14" s="91"/>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B15" s="41"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="78" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="78"/>
+      <c r="H15" s="78"/>
+      <c r="I15" s="79"/>
+      <c r="J15" s="84" t="s">
         <v>51</v>
       </c>
-      <c r="K10" s="19"/>
-    </row>
-    <row r="11" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="18" t="s">
+      <c r="K15" s="85"/>
+    </row>
+    <row r="16" spans="2:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="95"/>
+      <c r="C16" s="96"/>
+      <c r="D16" s="96"/>
+      <c r="E16" s="97"/>
+      <c r="F16" s="80"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="80"/>
+      <c r="I16" s="81"/>
+      <c r="J16" s="86"/>
+      <c r="K16" s="87"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="92"/>
+      <c r="P16" s="92"/>
+      <c r="Q16" s="92"/>
+    </row>
+    <row r="17" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="13"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="82"/>
+      <c r="G17" s="82"/>
+      <c r="H17" s="82"/>
+      <c r="I17" s="83"/>
+      <c r="J17" s="88"/>
+      <c r="K17" s="89"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="92"/>
+      <c r="P17" s="92"/>
+      <c r="Q17" s="92"/>
+    </row>
+    <row r="18" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="I18" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="J18" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="K18" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+    </row>
+    <row r="19" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="25">
+        <v>1</v>
+      </c>
+      <c r="C19" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="K11" s="19"/>
-    </row>
-    <row r="12" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" s="50"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="K12" s="19"/>
-    </row>
-    <row r="13" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" s="50"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="K13" s="19"/>
-    </row>
-    <row r="14" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="K14" s="38"/>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="20"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="69" t="s">
-        <v>54</v>
-      </c>
-      <c r="K15" s="70"/>
-    </row>
-    <row r="16" spans="2:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="26"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="71"/>
-      <c r="K16" s="72"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="39"/>
-      <c r="P16" s="39"/>
-      <c r="Q16" s="39"/>
-    </row>
-    <row r="17" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="14"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="73"/>
-      <c r="K17" s="74"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="39"/>
-      <c r="P17" s="39"/>
-      <c r="Q17" s="39"/>
-    </row>
-    <row r="18" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="75" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="76"/>
-      <c r="E18" s="76"/>
-      <c r="F18" s="76"/>
-      <c r="G18" s="76"/>
-      <c r="H18" s="77" t="s">
-        <v>39</v>
-      </c>
-      <c r="I18" s="78" t="s">
-        <v>9</v>
-      </c>
-      <c r="J18" s="77" t="s">
-        <v>15</v>
-      </c>
-      <c r="K18" s="79" t="s">
-        <v>16</v>
-      </c>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-    </row>
-    <row r="19" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="89">
-        <v>1</v>
-      </c>
-      <c r="C19" s="90" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="90"/>
-      <c r="E19" s="90"/>
-      <c r="F19" s="90"/>
-      <c r="G19" s="91"/>
-      <c r="H19" s="92">
+      <c r="D19" s="93"/>
+      <c r="E19" s="93"/>
+      <c r="F19" s="93"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="27">
         <v>68022390</v>
       </c>
-      <c r="I19" s="92">
+      <c r="I19" s="27">
         <v>300</v>
       </c>
-      <c r="J19" s="93">
+      <c r="J19" s="28">
         <v>44</v>
       </c>
-      <c r="K19" s="94">
+      <c r="K19" s="29">
         <f>I19*J19</f>
         <v>13200</v>
       </c>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B20" s="95">
+      <c r="B20" s="30">
         <v>2</v>
       </c>
-      <c r="C20" s="85" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" s="85"/>
-      <c r="E20" s="85"/>
-      <c r="F20" s="85"/>
-      <c r="G20" s="86"/>
-      <c r="H20" s="83">
+      <c r="C20" s="98" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="98"/>
+      <c r="E20" s="98"/>
+      <c r="F20" s="98"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="21">
         <v>68022390</v>
       </c>
-      <c r="I20" s="87">
+      <c r="I20" s="24">
         <v>110</v>
       </c>
-      <c r="J20" s="84">
+      <c r="J20" s="22">
         <v>31</v>
       </c>
-      <c r="K20" s="96">
+      <c r="K20" s="31">
         <f t="shared" ref="K20:K22" si="0">I20*J20</f>
         <v>3410</v>
       </c>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B21" s="95">
+      <c r="B21" s="30">
         <v>3</v>
       </c>
-      <c r="C21" s="88" t="s">
-        <v>57</v>
-      </c>
-      <c r="D21" s="88"/>
-      <c r="E21" s="88"/>
-      <c r="F21" s="88"/>
-      <c r="G21" s="86"/>
-      <c r="H21" s="83">
+      <c r="C21" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="21">
         <v>68022390</v>
       </c>
-      <c r="I21" s="87">
+      <c r="I21" s="24">
         <v>300</v>
       </c>
-      <c r="J21" s="84">
+      <c r="J21" s="22">
         <v>78</v>
       </c>
-      <c r="K21" s="96">
+      <c r="K21" s="31">
         <f t="shared" si="0"/>
         <v>23400</v>
       </c>
     </row>
     <row r="22" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="98">
+      <c r="B22" s="32">
         <v>4</v>
       </c>
-      <c r="C22" s="99" t="s">
-        <v>58</v>
-      </c>
-      <c r="D22" s="99"/>
-      <c r="E22" s="99"/>
-      <c r="F22" s="99"/>
-      <c r="G22" s="97"/>
-      <c r="H22" s="100">
+      <c r="C22" s="94" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="94"/>
+      <c r="E22" s="94"/>
+      <c r="F22" s="94"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="34">
         <v>68022390</v>
       </c>
-      <c r="I22" s="101">
+      <c r="I22" s="35">
         <v>110</v>
       </c>
-      <c r="J22" s="102">
+      <c r="J22" s="36">
         <v>53</v>
       </c>
-      <c r="K22" s="103">
+      <c r="K22" s="37">
         <f t="shared" si="0"/>
         <v>5830</v>
       </c>
     </row>
     <row r="23" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="53" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="80" t="s">
-        <v>10</v>
-      </c>
-      <c r="J23" s="81"/>
-      <c r="K23" s="82">
+      <c r="B23" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="J23" s="48"/>
+      <c r="K23" s="51">
         <f>SUM(K19:K22)</f>
         <v>45840</v>
       </c>
     </row>
     <row r="24" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="66"/>
-      <c r="K24" s="68"/>
+      <c r="B24" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="52"/>
     </row>
     <row r="25" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="57"/>
-      <c r="J25" s="58"/>
-      <c r="K25" s="59"/>
+      <c r="B25" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="74"/>
+      <c r="K25" s="75"/>
     </row>
     <row r="26" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="63" t="s">
-        <v>11</v>
-      </c>
-      <c r="J26" s="64"/>
-      <c r="K26" s="67">
+      <c r="B26" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="J26" s="55"/>
+      <c r="K26" s="53">
         <f>K23</f>
         <v>45840</v>
       </c>
     </row>
     <row r="27" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="60" t="s">
+      <c r="B27" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="45"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="50"/>
+      <c r="K27" s="52"/>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B28" s="67" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="68"/>
+      <c r="D28" s="68"/>
+      <c r="E28" s="68"/>
+      <c r="F28" s="68"/>
+      <c r="G28" s="68"/>
+      <c r="H28" s="68"/>
+      <c r="I28" s="68"/>
+      <c r="J28" s="68"/>
+      <c r="K28" s="69"/>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B29" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="42"/>
+      <c r="K29" s="43"/>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B30" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="43"/>
+    </row>
+    <row r="31" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="70" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="71"/>
+      <c r="D31" s="71"/>
+      <c r="E31" s="71"/>
+      <c r="F31" s="71"/>
+      <c r="G31" s="71"/>
+      <c r="H31" s="71"/>
+      <c r="I31" s="71"/>
+      <c r="J31" s="71"/>
+      <c r="K31" s="72"/>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B32" s="57" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="58"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="59"/>
+      <c r="G32" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="61"/>
-      <c r="D27" s="61"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="62"/>
-      <c r="I27" s="65"/>
-      <c r="J27" s="66"/>
-      <c r="K27" s="68"/>
-    </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B28" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="52"/>
-    </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B29" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="22"/>
-    </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B30" s="53" t="s">
-        <v>42</v>
-      </c>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="22"/>
-    </row>
-    <row r="31" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="54" t="s">
-        <v>43</v>
-      </c>
-      <c r="C31" s="55"/>
-      <c r="D31" s="55"/>
-      <c r="E31" s="55"/>
-      <c r="F31" s="55"/>
-      <c r="G31" s="55"/>
-      <c r="H31" s="55"/>
-      <c r="I31" s="55"/>
-      <c r="J31" s="55"/>
-      <c r="K31" s="56"/>
-    </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B32" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="C32" s="41"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="H32" s="41"/>
-      <c r="I32" s="41"/>
-      <c r="J32" s="41"/>
-      <c r="K32" s="42"/>
+      <c r="H32" s="58"/>
+      <c r="I32" s="58"/>
+      <c r="J32" s="58"/>
+      <c r="K32" s="59"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B33" s="43"/>
-      <c r="C33" s="44"/>
-      <c r="D33" s="44"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="43"/>
-      <c r="H33" s="44"/>
-      <c r="I33" s="44"/>
-      <c r="J33" s="44"/>
-      <c r="K33" s="45"/>
+      <c r="B33" s="60"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="60"/>
+      <c r="H33" s="61"/>
+      <c r="I33" s="61"/>
+      <c r="J33" s="61"/>
+      <c r="K33" s="62"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B34" s="43"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="43"/>
-      <c r="H34" s="44"/>
-      <c r="I34" s="44"/>
-      <c r="J34" s="44"/>
-      <c r="K34" s="45"/>
+      <c r="B34" s="60"/>
+      <c r="C34" s="61"/>
+      <c r="D34" s="61"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="62"/>
+      <c r="G34" s="60"/>
+      <c r="H34" s="61"/>
+      <c r="I34" s="61"/>
+      <c r="J34" s="61"/>
+      <c r="K34" s="62"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B35" s="43"/>
-      <c r="C35" s="44"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="45"/>
-      <c r="G35" s="43"/>
-      <c r="H35" s="44"/>
-      <c r="I35" s="44"/>
-      <c r="J35" s="44"/>
-      <c r="K35" s="45"/>
+      <c r="B35" s="60"/>
+      <c r="C35" s="61"/>
+      <c r="D35" s="61"/>
+      <c r="E35" s="61"/>
+      <c r="F35" s="62"/>
+      <c r="G35" s="60"/>
+      <c r="H35" s="61"/>
+      <c r="I35" s="61"/>
+      <c r="J35" s="61"/>
+      <c r="K35" s="62"/>
     </row>
     <row r="36" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="46"/>
-      <c r="C36" s="47"/>
-      <c r="D36" s="47"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="48"/>
-      <c r="G36" s="46"/>
-      <c r="H36" s="47"/>
-      <c r="I36" s="47"/>
-      <c r="J36" s="47"/>
-      <c r="K36" s="48"/>
+      <c r="B36" s="63"/>
+      <c r="C36" s="64"/>
+      <c r="D36" s="64"/>
+      <c r="E36" s="64"/>
+      <c r="F36" s="65"/>
+      <c r="G36" s="63"/>
+      <c r="H36" s="64"/>
+      <c r="I36" s="64"/>
+      <c r="J36" s="64"/>
+      <c r="K36" s="65"/>
     </row>
   </sheetData>
-  <mergeCells count="54">
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="I23:J24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="I26:J27"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="B25:H25"/>
+  <mergeCells count="55">
+    <mergeCell ref="B5:E6"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="O16:Q17"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="C20:F20"/>
     <mergeCell ref="B32:F36"/>
     <mergeCell ref="G32:K36"/>
     <mergeCell ref="F3:I3"/>
@@ -1947,35 +1957,24 @@
     <mergeCell ref="B31:K31"/>
     <mergeCell ref="I25:K25"/>
     <mergeCell ref="F14:I14"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="I26:J27"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="I23:J24"/>
     <mergeCell ref="F15:I17"/>
     <mergeCell ref="J15:K17"/>
     <mergeCell ref="J14:K14"/>
-    <mergeCell ref="O16:Q17"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J10:K10"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B9" r:id="rId1" display="info@bkexportsinternational.com" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B8" r:id="rId1" display="info@bkexportsinternational.com" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="93" orientation="portrait" r:id="rId2"/>

--- a/Proforma Invoice (Format ) final.xlsx
+++ b/Proforma Invoice (Format ) final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Main\BK Exports bills\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E0DAC33-3496-4A51-A63C-65580F5824BC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C9481B-688F-4854-820B-ABE024D61C29}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="30" windowWidth="22980" windowHeight="9555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,14 +18,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$B$1:$K$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$B$1:$K$33</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
   <si>
     <t xml:space="preserve">  B K EXPORTS</t>
   </si>
@@ -136,9 +136,6 @@
   </si>
   <si>
     <t>HS CODE</t>
-  </si>
-  <si>
-    <t>BK014/24-25</t>
   </si>
   <si>
     <t>FOB</t>
@@ -173,49 +170,39 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve"> Antarupa business Group  Eirl</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Contact no: +51 958 511 840</t>
-  </si>
-  <si>
-    <t>2 X FCL</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ruc:20602770444</t>
-  </si>
-  <si>
     <t>PROFORMA INVOICE</t>
   </si>
   <si>
     <t xml:space="preserve"> PROFORMA INVOICE NO.</t>
   </si>
   <si>
-    <t>Callao Port</t>
-  </si>
-  <si>
-    <t>Peru</t>
-  </si>
-  <si>
-    <t>Wooden Crate Packing</t>
-  </si>
-  <si>
-    <t>30 % Advance and Remaining Against Documents (After BL Release  within 7 Days</t>
-  </si>
-  <si>
-    <t>Absolute Black Premium: 280up x 80up - 2cm</t>
-  </si>
-  <si>
-    <t>Black Galaxy: 280up x 80up - 2cm</t>
-  </si>
-  <si>
-    <t>Absolute Black Premium:  270Upx 170Up - 2cm</t>
-  </si>
-  <si>
-    <t>Black Galaxy: 270Upx 170Up - 2cm</t>
-  </si>
-  <si>
     <t xml:space="preserve">  90, JASODANAGAR CHAR RASTA, NEAR CANAL   OPP.GUJ.GLASS, AHMEDABAD, GUJARAT - 380026</t>
+  </si>
+  <si>
+    <t>PI2501/25-26</t>
+  </si>
+  <si>
+    <t>Armenia</t>
+  </si>
+  <si>
+    <t>Loose Packing</t>
+  </si>
+  <si>
+    <t>1 X FCL</t>
+  </si>
+  <si>
+    <t>30 % Advance and Remaining Against Documents (After BL Release  within 7 Days)</t>
+  </si>
+  <si>
+    <t>Black Galaxy: 
+240-330 CM Length x 70-100 CM Height, Thickness : 18mm+</t>
+  </si>
+  <si>
+    <t>MARTIROSYANNER
+IE KARLEN MARTIROSIAN 5 STREET, 
+30A, SILIKYAN , YEREVAN - ARMENIA, 
+POSTAL CODE:0078 
+MAIL ID:kgmgranit2012@gmail.com </t>
   </si>
 </sst>
 </file>
@@ -319,7 +306,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -482,21 +469,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -537,81 +509,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -621,7 +518,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -637,9 +534,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -652,63 +546,140 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -725,91 +696,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -852,38 +738,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -909,22 +764,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>348155</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>26277</xdr:rowOff>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>557080</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>101179</xdr:rowOff>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>148653</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49B7F829-FB2D-4CE1-BEF6-6FC6888230C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3663AC9E-1676-4C04-BC2C-59A059763BE5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -946,8 +801,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="794845" y="6982811"/>
-          <a:ext cx="1601545" cy="646402"/>
+          <a:off x="1066800" y="5943599"/>
+          <a:ext cx="1733550" cy="710629"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1280,10 +1135,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:Q36"/>
+  <dimension ref="B1:Q33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1300,18 +1155,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="99" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
+      <c r="B1" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
     </row>
     <row r="2" spans="2:17" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="9"/>
@@ -1326,22 +1181,22 @@
       <c r="K2" s="12"/>
     </row>
     <row r="3" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
       <c r="E3" s="4"/>
-      <c r="F3" s="66" t="s">
-        <v>47</v>
-      </c>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="100" t="s">
-        <v>37</v>
-      </c>
-      <c r="K3" s="101"/>
+      <c r="F3" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" s="28"/>
     </row>
     <row r="4" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
@@ -1350,50 +1205,50 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="66" t="s">
+      <c r="F4" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="102">
-        <v>45635</v>
-      </c>
-      <c r="K4" s="101"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="34">
+        <v>45750</v>
+      </c>
+      <c r="K4" s="28"/>
     </row>
     <row r="5" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="103" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" s="104"/>
-      <c r="D5" s="104"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="66" t="s">
+      <c r="B5" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="102">
-        <v>45657</v>
-      </c>
-      <c r="K5" s="101"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="34">
+        <v>45777</v>
+      </c>
+      <c r="K5" s="28"/>
     </row>
     <row r="6" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="103"/>
-      <c r="C6" s="104"/>
-      <c r="D6" s="104"/>
-      <c r="E6" s="105"/>
-      <c r="F6" s="66" t="s">
+      <c r="B6" s="23"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="100" t="s">
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="K6" s="101"/>
+      <c r="K6" s="28"/>
     </row>
     <row r="7" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
@@ -1402,16 +1257,16 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="66" t="s">
+      <c r="F7" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="100" t="s">
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="101"/>
+      <c r="K7" s="28"/>
     </row>
     <row r="8" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
@@ -1420,16 +1275,16 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="66" t="s">
+      <c r="F8" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="100" t="s">
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="K8" s="101"/>
+      <c r="K8" s="28"/>
     </row>
     <row r="9" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
@@ -1438,32 +1293,30 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="66" t="s">
+      <c r="F9" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="100" t="s">
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="K9" s="101"/>
+      <c r="K9" s="28"/>
     </row>
     <row r="10" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="9"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="66" t="s">
+      <c r="F10" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="100" t="s">
-        <v>48</v>
-      </c>
-      <c r="K10" s="101"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="28"/>
     </row>
     <row r="11" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
@@ -1472,458 +1325,411 @@
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="7"/>
-      <c r="F11" s="38" t="s">
+      <c r="F11" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="100" t="s">
-        <v>49</v>
-      </c>
-      <c r="K11" s="101"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="K11" s="28"/>
     </row>
     <row r="12" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="38" t="s">
+      <c r="B12" s="85" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="100" t="s">
-        <v>38</v>
-      </c>
-      <c r="K12" s="101"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="K12" s="28"/>
     </row>
     <row r="13" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="38" t="s">
+      <c r="B13" s="42"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="100" t="s">
-        <v>50</v>
-      </c>
-      <c r="K13" s="101"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="K13" s="28"/>
     </row>
     <row r="14" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="76" t="s">
+      <c r="B14" s="42"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="G14" s="76"/>
-      <c r="H14" s="76"/>
-      <c r="I14" s="77"/>
-      <c r="J14" s="90" t="s">
-        <v>44</v>
-      </c>
-      <c r="K14" s="91"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="83" t="s">
+        <v>47</v>
+      </c>
+      <c r="K14" s="84"/>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="41"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="78" t="s">
+      <c r="B15" s="42"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="G15" s="78"/>
-      <c r="H15" s="78"/>
-      <c r="I15" s="79"/>
-      <c r="J15" s="84" t="s">
-        <v>51</v>
-      </c>
-      <c r="K15" s="85"/>
+      <c r="G15" s="71"/>
+      <c r="H15" s="71"/>
+      <c r="I15" s="72"/>
+      <c r="J15" s="77" t="s">
+        <v>48</v>
+      </c>
+      <c r="K15" s="78"/>
     </row>
     <row r="16" spans="2:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="95"/>
-      <c r="C16" s="96"/>
-      <c r="D16" s="96"/>
-      <c r="E16" s="97"/>
-      <c r="F16" s="80"/>
-      <c r="G16" s="80"/>
-      <c r="H16" s="80"/>
-      <c r="I16" s="81"/>
-      <c r="J16" s="86"/>
-      <c r="K16" s="87"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="73"/>
+      <c r="H16" s="73"/>
+      <c r="I16" s="74"/>
+      <c r="J16" s="79"/>
+      <c r="K16" s="80"/>
       <c r="N16" s="8"/>
-      <c r="O16" s="92"/>
-      <c r="P16" s="92"/>
-      <c r="Q16" s="92"/>
+      <c r="O16" s="37"/>
+      <c r="P16" s="37"/>
+      <c r="Q16" s="37"/>
     </row>
     <row r="17" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="13"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="82"/>
-      <c r="G17" s="82"/>
-      <c r="H17" s="82"/>
-      <c r="I17" s="83"/>
-      <c r="J17" s="88"/>
-      <c r="K17" s="89"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="75"/>
+      <c r="H17" s="75"/>
+      <c r="I17" s="76"/>
+      <c r="J17" s="81"/>
+      <c r="K17" s="82"/>
       <c r="N17" s="8"/>
-      <c r="O17" s="92"/>
-      <c r="P17" s="92"/>
-      <c r="Q17" s="92"/>
+      <c r="O17" s="37"/>
+      <c r="P17" s="37"/>
+      <c r="Q17" s="37"/>
     </row>
     <row r="18" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="18" t="s">
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="I18" s="19" t="s">
+      <c r="I18" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="J18" s="18" t="s">
+      <c r="J18" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="K18" s="20" t="s">
+      <c r="K18" s="17" t="s">
         <v>13</v>
       </c>
       <c r="N18" s="8"/>
       <c r="O18" s="8"/>
       <c r="P18" s="8"/>
     </row>
-    <row r="19" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="25">
+    <row r="19" spans="2:17" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="18">
         <v>1</v>
       </c>
-      <c r="C19" s="93" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" s="93"/>
-      <c r="E19" s="93"/>
-      <c r="F19" s="93"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="27">
+      <c r="C19" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="20">
         <v>68022390</v>
       </c>
-      <c r="I19" s="27">
-        <v>300</v>
-      </c>
-      <c r="J19" s="28">
-        <v>44</v>
-      </c>
-      <c r="K19" s="29">
+      <c r="I19" s="20">
+        <v>420</v>
+      </c>
+      <c r="J19" s="21">
+        <v>24.15</v>
+      </c>
+      <c r="K19" s="22">
         <f>I19*J19</f>
-        <v>13200</v>
+        <v>10143</v>
       </c>
       <c r="N19" s="8"/>
       <c r="O19" s="8"/>
       <c r="P19" s="8"/>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B20" s="30">
-        <v>2</v>
-      </c>
-      <c r="C20" s="98" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" s="98"/>
-      <c r="E20" s="98"/>
-      <c r="F20" s="98"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="21">
-        <v>68022390</v>
-      </c>
-      <c r="I20" s="24">
-        <v>110</v>
-      </c>
-      <c r="J20" s="22">
+    <row r="20" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="69" t="s">
+        <v>7</v>
+      </c>
+      <c r="J20" s="70"/>
+      <c r="K20" s="59">
+        <f>SUM(K19:K19)</f>
+        <v>10143</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="64"/>
+      <c r="J21" s="65"/>
+      <c r="K21" s="60"/>
+    </row>
+    <row r="22" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="55"/>
+      <c r="K22" s="56"/>
+    </row>
+    <row r="23" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="K20" s="31">
-        <f t="shared" ref="K20:K22" si="0">I20*J20</f>
-        <v>3410</v>
-      </c>
-    </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B21" s="30">
-        <v>3</v>
-      </c>
-      <c r="C21" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="21">
-        <v>68022390</v>
-      </c>
-      <c r="I21" s="24">
-        <v>300</v>
-      </c>
-      <c r="J21" s="22">
-        <v>78</v>
-      </c>
-      <c r="K21" s="31">
-        <f t="shared" si="0"/>
-        <v>23400</v>
-      </c>
-    </row>
-    <row r="22" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="32">
-        <v>4</v>
-      </c>
-      <c r="C22" s="94" t="s">
-        <v>55</v>
-      </c>
-      <c r="D22" s="94"/>
-      <c r="E22" s="94"/>
-      <c r="F22" s="94"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="34">
-        <v>68022390</v>
-      </c>
-      <c r="I22" s="35">
-        <v>110</v>
-      </c>
-      <c r="J22" s="36">
-        <v>53</v>
-      </c>
-      <c r="K22" s="37">
-        <f t="shared" si="0"/>
-        <v>5830</v>
-      </c>
-    </row>
-    <row r="23" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="56" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="43"/>
-      <c r="I23" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="J23" s="48"/>
-      <c r="K23" s="51">
-        <f>SUM(K19:K22)</f>
-        <v>45840</v>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="J23" s="63"/>
+      <c r="K23" s="61">
+        <f>K20</f>
+        <v>10143</v>
       </c>
     </row>
     <row r="24" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="43"/>
-      <c r="I24" s="49"/>
-      <c r="J24" s="50"/>
-      <c r="K24" s="52"/>
-    </row>
-    <row r="25" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="43"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="74"/>
-      <c r="K25" s="75"/>
-    </row>
-    <row r="26" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" s="42"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="43"/>
-      <c r="I26" s="54" t="s">
-        <v>8</v>
-      </c>
-      <c r="J26" s="55"/>
-      <c r="K26" s="53">
-        <f>K23</f>
-        <v>45840</v>
-      </c>
-    </row>
-    <row r="27" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="44" t="s">
+      <c r="B24" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="45"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="46"/>
-      <c r="I27" s="49"/>
-      <c r="J27" s="50"/>
-      <c r="K27" s="52"/>
-    </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B28" s="67" t="s">
+      <c r="C24" s="67"/>
+      <c r="D24" s="67"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="68"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="60"/>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B25" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="68"/>
-      <c r="D28" s="68"/>
-      <c r="E28" s="68"/>
-      <c r="F28" s="68"/>
-      <c r="G28" s="68"/>
-      <c r="H28" s="68"/>
-      <c r="I28" s="68"/>
-      <c r="J28" s="68"/>
-      <c r="K28" s="69"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="49"/>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B26" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="31"/>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B27" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="31"/>
+    </row>
+    <row r="28" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="52"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="52"/>
+      <c r="J28" s="52"/>
+      <c r="K28" s="53"/>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B29" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" s="42"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="42"/>
-      <c r="I29" s="42"/>
-      <c r="J29" s="42"/>
-      <c r="K29" s="43"/>
+      <c r="B29" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="H29" s="40"/>
+      <c r="I29" s="40"/>
+      <c r="J29" s="40"/>
+      <c r="K29" s="41"/>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B30" s="56" t="s">
-        <v>39</v>
-      </c>
-      <c r="C30" s="42"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="42"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="44"/>
       <c r="G30" s="42"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="42"/>
-      <c r="J30" s="42"/>
-      <c r="K30" s="43"/>
-    </row>
-    <row r="31" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="70" t="s">
-        <v>40</v>
-      </c>
-      <c r="C31" s="71"/>
-      <c r="D31" s="71"/>
-      <c r="E31" s="71"/>
-      <c r="F31" s="71"/>
-      <c r="G31" s="71"/>
-      <c r="H31" s="71"/>
-      <c r="I31" s="71"/>
-      <c r="J31" s="71"/>
-      <c r="K31" s="72"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="43"/>
+      <c r="K30" s="44"/>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B31" s="42"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="43"/>
+      <c r="I31" s="43"/>
+      <c r="J31" s="43"/>
+      <c r="K31" s="44"/>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B32" s="57" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32" s="58"/>
-      <c r="D32" s="58"/>
-      <c r="E32" s="58"/>
-      <c r="F32" s="59"/>
-      <c r="G32" s="57" t="s">
-        <v>35</v>
-      </c>
-      <c r="H32" s="58"/>
-      <c r="I32" s="58"/>
-      <c r="J32" s="58"/>
-      <c r="K32" s="59"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B33" s="60"/>
-      <c r="C33" s="61"/>
-      <c r="D33" s="61"/>
-      <c r="E33" s="61"/>
-      <c r="F33" s="62"/>
-      <c r="G33" s="60"/>
-      <c r="H33" s="61"/>
-      <c r="I33" s="61"/>
-      <c r="J33" s="61"/>
-      <c r="K33" s="62"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B34" s="60"/>
-      <c r="C34" s="61"/>
-      <c r="D34" s="61"/>
-      <c r="E34" s="61"/>
-      <c r="F34" s="62"/>
-      <c r="G34" s="60"/>
-      <c r="H34" s="61"/>
-      <c r="I34" s="61"/>
-      <c r="J34" s="61"/>
-      <c r="K34" s="62"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B35" s="60"/>
-      <c r="C35" s="61"/>
-      <c r="D35" s="61"/>
-      <c r="E35" s="61"/>
-      <c r="F35" s="62"/>
-      <c r="G35" s="60"/>
-      <c r="H35" s="61"/>
-      <c r="I35" s="61"/>
-      <c r="J35" s="61"/>
-      <c r="K35" s="62"/>
-    </row>
-    <row r="36" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="63"/>
-      <c r="C36" s="64"/>
-      <c r="D36" s="64"/>
-      <c r="E36" s="64"/>
-      <c r="F36" s="65"/>
-      <c r="G36" s="63"/>
-      <c r="H36" s="64"/>
-      <c r="I36" s="64"/>
-      <c r="J36" s="64"/>
-      <c r="K36" s="65"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="43"/>
+      <c r="J32" s="43"/>
+      <c r="K32" s="44"/>
+    </row>
+    <row r="33" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="45"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="46"/>
+      <c r="I33" s="46"/>
+      <c r="J33" s="46"/>
+      <c r="K33" s="47"/>
     </row>
   </sheetData>
-  <mergeCells count="55">
+  <mergeCells count="48">
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="B25:K25"/>
+    <mergeCell ref="B26:K26"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="I23:J24"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="B29:F33"/>
+    <mergeCell ref="G29:K33"/>
+    <mergeCell ref="B27:K27"/>
+    <mergeCell ref="B28:K28"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="I20:J21"/>
+    <mergeCell ref="F15:I17"/>
+    <mergeCell ref="J15:K17"/>
+    <mergeCell ref="B12:E17"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="O16:Q17"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="J14:K14"/>
     <mergeCell ref="B5:E6"/>
     <mergeCell ref="B1:K1"/>
     <mergeCell ref="J11:K11"/>
     <mergeCell ref="J12:K12"/>
     <mergeCell ref="J13:K13"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B13:E13"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="J4:K4"/>
@@ -1933,45 +1739,6 @@
     <mergeCell ref="F13:I13"/>
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="O16:Q17"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="B32:F36"/>
-    <mergeCell ref="G32:K36"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="B28:K28"/>
-    <mergeCell ref="B29:K29"/>
-    <mergeCell ref="B30:K30"/>
-    <mergeCell ref="B31:K31"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="I26:J27"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="I23:J24"/>
-    <mergeCell ref="F15:I17"/>
-    <mergeCell ref="J15:K17"/>
-    <mergeCell ref="J14:K14"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B8" r:id="rId1" display="info@bkexportsinternational.com" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
